--- a/parent_deaths.xlsx
+++ b/parent_deaths.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$57</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -674,7 +674,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="140" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1432,7 +1434,7 @@
         <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s">
         <v>95</v>
@@ -1632,7 +1634,7 @@
         <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s">
         <v>96</v>
@@ -1839,7 +1841,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A57"/>
+  <autoFilter ref="A1:G57"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/parent_deaths.xlsx
+++ b/parent_deaths.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$A$57</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$J$2</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -674,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1841,7 +1842,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G57"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/parent_deaths.xlsx
+++ b/parent_deaths.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$A$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$58</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$J$2</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="108">
   <si>
     <t>title</t>
   </si>
@@ -331,6 +331,30 @@
   </si>
   <si>
     <t>Jane</t>
+  </si>
+  <si>
+    <t>Bolt</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>murder</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>martyr</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>not dead</t>
   </si>
 </sst>
 </file>
@@ -673,10 +697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -686,7 +711,7 @@
     <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,8 +733,11 @@
       <c r="G1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -728,8 +756,11 @@
       <c r="G2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -748,8 +779,11 @@
       <c r="G3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -768,8 +802,11 @@
       <c r="G4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -788,8 +825,11 @@
       <c r="G5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -808,8 +848,11 @@
       <c r="G6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -828,8 +871,11 @@
       <c r="G7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -848,8 +894,11 @@
       <c r="G8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -868,8 +917,11 @@
       <c r="G9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -888,8 +940,11 @@
       <c r="G10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -908,8 +963,11 @@
       <c r="G11" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -928,8 +986,11 @@
       <c r="G12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -948,8 +1009,11 @@
       <c r="G13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -971,8 +1035,11 @@
       <c r="G14" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -991,8 +1058,11 @@
       <c r="G15" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1011,8 +1081,11 @@
       <c r="G16" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1031,8 +1104,11 @@
       <c r="G17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1051,8 +1127,11 @@
       <c r="G18" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1071,8 +1150,11 @@
       <c r="G19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1091,8 +1173,11 @@
       <c r="G20" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -1111,8 +1196,11 @@
       <c r="G21" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -1131,8 +1219,11 @@
       <c r="G22" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1151,8 +1242,11 @@
       <c r="G23" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1171,8 +1265,11 @@
       <c r="G24" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -1191,8 +1288,11 @@
       <c r="G25" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -1211,8 +1311,11 @@
       <c r="G26" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1231,8 +1334,11 @@
       <c r="G27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -1254,8 +1360,11 @@
       <c r="G28" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -1274,8 +1383,11 @@
       <c r="G29" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1294,8 +1406,11 @@
       <c r="G30" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1317,8 +1432,11 @@
       <c r="G31" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -1337,8 +1455,11 @@
       <c r="G32" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1360,8 +1481,11 @@
       <c r="G33" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -1380,8 +1504,11 @@
       <c r="G34" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -1400,8 +1527,11 @@
       <c r="G35" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1420,8 +1550,11 @@
       <c r="G36" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1440,8 +1573,11 @@
       <c r="G37" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -1460,8 +1596,11 @@
       <c r="G38" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -1480,8 +1619,11 @@
       <c r="G39" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1500,8 +1642,11 @@
       <c r="G40" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -1520,8 +1665,11 @@
       <c r="G41" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -1540,8 +1688,11 @@
       <c r="G42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -1560,8 +1711,11 @@
       <c r="G43" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -1580,8 +1734,11 @@
       <c r="G44" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -1600,8 +1757,11 @@
       <c r="G45" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1620,8 +1780,11 @@
       <c r="G46" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -1640,8 +1803,11 @@
       <c r="G47" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -1660,8 +1826,11 @@
       <c r="G48" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -1680,8 +1849,11 @@
       <c r="G49" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -1700,8 +1872,11 @@
       <c r="G50" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -1720,8 +1895,11 @@
       <c r="G51" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -1740,8 +1918,11 @@
       <c r="G52" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -1760,8 +1941,11 @@
       <c r="G53" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -1780,8 +1964,11 @@
       <c r="G54" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -1800,8 +1987,11 @@
       <c r="G55" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -1820,8 +2010,11 @@
       <c r="G56" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -1840,8 +2033,53 @@
       <c r="G57" t="s">
         <v>95</v>
       </c>
+      <c r="H57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" t="s">
+        <v>95</v>
+      </c>
+      <c r="H58" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H58">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="car accident"/>
+        <filter val="deceased"/>
+        <filter val="died in world war I"/>
+        <filter val="dies saving Arlo from flood"/>
+        <filter val="drowned"/>
+        <filter val="eaten by barracuda"/>
+        <filter val="killed by huns"/>
+        <filter val="killed by Kenai"/>
+        <filter val="killed by leopard"/>
+        <filter val="murdered by hunter"/>
+        <filter val="murdered by Judge Frollo"/>
+        <filter val="murdered by Scar"/>
+        <filter val="sacrificed self"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
